--- a/team9/files/iso_country_reduced.xlsx
+++ b/team9/files/iso_country_reduced.xlsx
@@ -377,527 +377,527 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Afghanistan</t>
+          <t>Aruba</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AF</t>
+          <t>AW</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AFG</t>
+          <t>ABW</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Afghanistan</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>AF</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ALB</t>
+          <t>AFG</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Angola</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DZ</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DZA</t>
+          <t>AGO</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>American Samoa</t>
+          <t>Anguilla</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>AI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ASM</t>
+          <t>AIA</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AD</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AND</t>
+          <t>ALB</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Angola</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>AD</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AGO</t>
+          <t>AND</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Anguilla</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AI</t>
+          <t>AE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AIA</t>
+          <t>ARE</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Antarctica</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AQ</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ATA</t>
+          <t>ARG</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Antigua and Barbuda</t>
+          <t>Armenia</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AG</t>
+          <t>AM</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ATG</t>
+          <t>ARM</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>American Samoa</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>AS</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ARG</t>
+          <t>ASM</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Armenia</t>
+          <t>Antarctica</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AM</t>
+          <t>AQ</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>ATA</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Aruba</t>
+          <t>French South Antarctic Territories</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AW</t>
+          <t>FQ</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ABW</t>
+          <t>ATF</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Antigua and Barbuda</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>AG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>ATG</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>AUT</t>
+          <t>AUS</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Azerbaijan</t>
+          <t>Austria</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AZE</t>
+          <t>AUT</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Bahamas</t>
+          <t>Azerbaijan</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>AZE</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bahrain</t>
+          <t>Burundi</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BH</t>
+          <t>BI</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>BHR</t>
+          <t>BDI</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Bangladesh</t>
+          <t>Belgium</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>BGD</t>
+          <t>BEL</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Barbados</t>
+          <t>Benin</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BJ</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>BRB</t>
+          <t>BEN</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>Bonaire, Saint Eustatius and Saba</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BY</t>
+          <t>BQ</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>BLR</t>
+          <t>BES</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Burkina Faso</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>BF</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>BFA</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Belize</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BZ</t>
+          <t>BD</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>BGD</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Benin</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BJ</t>
+          <t>BG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BEN</t>
+          <t>BGR</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Bermuda</t>
+          <t>Bahrain</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BM</t>
+          <t>BH</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BMU</t>
+          <t>BHR</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Bhutan</t>
+          <t>Bahamas</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BT</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BTN</t>
+          <t>BHS</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Plurinational State of Bolivia</t>
+          <t>Bosnia and Herzegovina</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BO</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BOL</t>
+          <t>BIH</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Bonaire, Saint Eustatius and Saba</t>
+          <t>Saint Barthélemy</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BQ</t>
+          <t>BL</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>BES</t>
+          <t>BLM</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Bosnia Herzegovina</t>
+          <t>Belarus</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>BY</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>BIH</t>
+          <t>BLR</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Botswana</t>
+          <t>Belize</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BW</t>
+          <t>BZ</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>BWA</t>
+          <t>BLZ</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>British Indian Ocean Territories</t>
+          <t>Bermuda</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>IO</t>
+          <t>BM</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>IOT</t>
+          <t>BMU</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>British Virgin Islands</t>
+          <t>Bolivia (Plurinational State of)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>VG</t>
+          <t>BO</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>VGB</t>
+          <t>BOL</t>
         </is>
       </c>
     </row>
@@ -921,867 +921,867 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Brunei Darussalam</t>
+          <t>Barbados</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BN</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BRN</t>
+          <t>BRB</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Brunei Darussalam</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BG</t>
+          <t>BN</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>BGR</t>
+          <t>BRN</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Burkina Faso</t>
+          <t>Bhutan</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BF</t>
+          <t>BT</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>BFA</t>
+          <t>BTN</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Burundi</t>
+          <t>Botswana</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BI</t>
+          <t>BW</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>BDI</t>
+          <t>BWA</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Cabo Verde</t>
+          <t>Central African Republic</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CV</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>CPV</t>
+          <t>CAF</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Cambodia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>KH</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>CAN</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Cameroon</t>
+          <t>Cocos Islands</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CM</t>
+          <t>CC</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CMR</t>
+          <t>CCK</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Switzerland</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CH</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>CHE</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Cayman Islands</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>KY</t>
+          <t>CL</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CYM</t>
+          <t>CHL</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Central African Republic</t>
+          <t>China</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CAF</t>
+          <t>CHN</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Chad</t>
+          <t>Côte d'Ivoire</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>TD</t>
+          <t>CI</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>TCD</t>
+          <t>CIV</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Chile</t>
+          <t>Cameroon</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>CM</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CHL</t>
+          <t>CMR</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Democratic Republic of the Congo</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>COD</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>China, Hong Kong Special Administrative Region</t>
+          <t>Congo</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>HK</t>
+          <t>CG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>HKG</t>
+          <t>COG</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>China, Macao Special Administrative Region</t>
+          <t>Cook Islands</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>CK</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MAC</t>
+          <t>COK</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Christmas Islands</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CX</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CXR</t>
+          <t>COL</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Cocos Islands</t>
+          <t>Comoros</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CC</t>
+          <t>KM</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CCK</t>
+          <t>COM</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Cabo Verde</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>CV</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>COL</t>
+          <t>CPV</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Comoros</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>KM</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>COM</t>
+          <t>CRI</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Congo</t>
+          <t>Cuba</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CG</t>
+          <t>CU</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>COG</t>
+          <t>CUB</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Cook Islands</t>
+          <t>Curaçao</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CK</t>
+          <t>CW</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>COK</t>
+          <t>CUW</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Christmas Islands</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>CX</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CRI</t>
+          <t>CXR</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Côte d'Ivoire</t>
+          <t>Cayman Islands</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>KY</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CIV</t>
+          <t>CYM</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>HRV</t>
+          <t>CYP</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Cuba</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CU</t>
+          <t>CZ</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CUB</t>
+          <t>CZE</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Curaçao</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CW</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CUW</t>
+          <t>DEU</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Djibouti</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CY</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CYP</t>
+          <t>DJI</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Czechia</t>
+          <t>Dominica</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CZ</t>
+          <t>DM</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CZE</t>
+          <t>DMA</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Democratic People's Republic of Korea</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>KP</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>PRK</t>
+          <t>DNK</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Democratic Republic of the Congo</t>
+          <t>Dominican Republic</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>DO</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>COD</t>
+          <t>DOM</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DK</t>
+          <t>DZ</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>DNK</t>
+          <t>DZA</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Djibouti</t>
+          <t>Ecuador</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>EC</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>DJI</t>
+          <t>ECU</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Dominica</t>
+          <t>Egypt</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DM</t>
+          <t>EG</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>DMA</t>
+          <t>EGY</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Dominican Republic</t>
+          <t>Eritrea</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>DO</t>
+          <t>ER</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>DOM</t>
+          <t>ERI</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Ecuador</t>
+          <t>Western Sahara</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>EC</t>
+          <t>EH</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ECU</t>
+          <t>ESH</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Egypt</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>EG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>EGY</t>
+          <t>ESP</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>El Salvador</t>
+          <t>Estonia</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SV</t>
+          <t>EE</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>SLV</t>
+          <t>EST</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Equatorial Guinea</t>
+          <t>Ethiopia</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>GQ</t>
+          <t>ET</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>GNQ</t>
+          <t>ETH</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Eritrea</t>
+          <t>EU-28</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ER</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ERI</t>
+          <t>EU2</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Finland</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>EE</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>EST</t>
+          <t>FIN</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Ethiopia</t>
+          <t>Fiji</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ET</t>
+          <t>FJ</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>ETH</t>
+          <t>FJI</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>EU-28</t>
+          <t>Falkland Islands (Malvinas)</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>EU</t>
+          <t>FK</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>EU2</t>
+          <t>FLK</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Faeroe Islands</t>
+          <t>France</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>FO</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>FRO</t>
+          <t>FRA</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Falkland Islands (Malvinas)</t>
+          <t>Faeroe Islands</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>FK</t>
+          <t>FO</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>FLK</t>
+          <t>FRO</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Fiji</t>
+          <t>Micronesia (Federated States of)</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>FJ</t>
+          <t>FM</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>FJI</t>
+          <t>FSM</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Gabon</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>FI</t>
+          <t>GA</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>GAB</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>French South Antarctic Territories</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>FQ</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>ATF</t>
+          <t>GBR</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>France, Monaco</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>GEO</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>French Polynesia</t>
+          <t>Ghana</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PF</t>
+          <t>GH</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>PYF</t>
+          <t>GHA</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Federated State of Micronesia</t>
+          <t>Gibraltar</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>FM</t>
+          <t>GI</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>FSM</t>
+          <t>GIB</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Gabon</t>
+          <t>Guinea</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>GA</t>
+          <t>GN</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>GAB</t>
+          <t>GIN</t>
         </is>
       </c>
     </row>
@@ -1805,204 +1805,204 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Guinea-Bissau</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>GW</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>GNB</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Equatorial Guinea</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>GQ</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GNQ</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>GH</t>
+          <t>GR</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>GHA</t>
+          <t>GRC</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Gibraltar</t>
+          <t>Grenada</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>GI</t>
+          <t>GD</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>GIB</t>
+          <t>GRD</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Greenland</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>GR</t>
+          <t>GL</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>GRC</t>
+          <t>GRL</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Greenland</t>
+          <t>Guatemala</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>GL</t>
+          <t>GT</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>GRL</t>
+          <t>GTM</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Grenada</t>
+          <t>Guam</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>GU</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>GRD</t>
+          <t>GUM</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Guam</t>
+          <t>Guyana</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>GU</t>
+          <t>GY</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>GUM</t>
+          <t>GUY</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Guatemala</t>
+          <t>China, Hong Kong Special Administrative Region</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>HK</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>HKG</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>Heard Island and McDonald Islands</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>GN</t>
+          <t>HM</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>GIN</t>
+          <t>HMD</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Guinea-Bissau</t>
+          <t>Honduras</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>GW</t>
+          <t>HN</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>GNB</t>
+          <t>HND</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Guyana</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>GY</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>GUY</t>
+          <t>HRV</t>
         </is>
       </c>
     </row>
@@ -2026,289 +2026,289 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Heard Island and McDonald Islands</t>
+          <t>Hungary</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>HM</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>HMD</t>
+          <t>HUN</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Holy See (Vatican City State)</t>
+          <t>Indonesia</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>VA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>VAT</t>
+          <t>IDN</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Honduras</t>
+          <t>India</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>HN</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>IND</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>British Indian Ocean Territories</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>HU</t>
+          <t>IO</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>HUN</t>
+          <t>IOT</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>IS</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>ISL</t>
+          <t>IRL</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Iran (Islamic Republic of)</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>IRN</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Iraq</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>IDN</t>
+          <t>IRQ</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Iceland</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>IS</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>IRN</t>
+          <t>ISL</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Iraq</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>IRQ</t>
+          <t>ISR</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>IRL</t>
+          <t>ITA</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Israel</t>
+          <t>Jamaica</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>JM</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>ISR</t>
+          <t>JAM</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>JO</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>JOR</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Jamaica</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>JM</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>JAM</t>
+          <t>JPN</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Kazakhstan</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>KZ</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>KAZ</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Kenya</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>JO</t>
+          <t>KE</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>JOR</t>
+          <t>KEN</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Kazakhstan</t>
+          <t>Kyrgyzstan</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>KZ</t>
+          <t>KG</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>KAZ</t>
+          <t>KGZ</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Kenya</t>
+          <t>Cambodia</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>KE</t>
+          <t>KH</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>KHM</t>
         </is>
       </c>
     </row>
@@ -2332,68 +2332,68 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Kuwait</t>
+          <t>Saint Kitts and Nevis</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>KW</t>
+          <t>KN</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>KWT</t>
+          <t>KNA</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Kyrgyzstan</t>
+          <t>Republic of Korea</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>KG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>KGZ</t>
+          <t>KOR</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Lao People's Dem. Rep.</t>
+          <t>Kuwait</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>LA</t>
+          <t>KW</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>KWT</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Lao People's Democratic Republic</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>LA</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>LAO</t>
         </is>
       </c>
     </row>
@@ -2417,1122 +2417,1122 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Lesotho</t>
+          <t>Liberia</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>LS</t>
+          <t>LR</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>LSO</t>
+          <t>LBR</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Liberia</t>
+          <t>Libya</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>LR</t>
+          <t>LY</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>LBR</t>
+          <t>LBY</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Libya</t>
+          <t>Saint Lucia</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>LY</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>LBY</t>
+          <t>LCA</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Sri Lanka</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>LK</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>LTU</t>
+          <t>LKA</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Lesotho</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>LS</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>LUX</t>
+          <t>LSO</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Madagascar</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MG</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>LTU</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Malawi</t>
+          <t>Luxembourg</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MW</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>MWI</t>
+          <t>LUX</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Latvia</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>MY</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>MYS</t>
+          <t>LVA</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Maldives</t>
+          <t>China, Macao Special Administrative Region</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>MV</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>MDV</t>
+          <t>MAC</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Mali</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ML</t>
+          <t>MA</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>MAR</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Republic of Moldova</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>MLT</t>
+          <t>MDA</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Marshall Islands</t>
+          <t>Madagascar</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>MH</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>MHL</t>
+          <t>MDG</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Mauritania</t>
+          <t>Maldives</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>MR</t>
+          <t>MV</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>MRT</t>
+          <t>MDV</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Mauritius</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>MU</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>MUS</t>
+          <t>MEX</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Mayotte</t>
+          <t>Marshall Islands</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>YT</t>
+          <t>MH</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>MYT</t>
+          <t>MHL</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Republic of North Macedonia</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>MK</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>MKD</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Mongolia</t>
+          <t>Mali</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>MN</t>
+          <t>ML</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>MNG</t>
+          <t>MLI</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Malta</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ME</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>MNE</t>
+          <t>MLT</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Montserrat</t>
+          <t>Myanmar</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>MM</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>MSR</t>
+          <t>MMR</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Montenegro</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>ME</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>MNE</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Mongolia</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>MZ</t>
+          <t>MN</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>MNG</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Myanmar</t>
+          <t>Northern Mariana Islands</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>MM</t>
+          <t>MP</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>MMR</t>
+          <t>MNP</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Northern Mariana Islands</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>MP</t>
+          <t>MZ</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>MNP</t>
+          <t>MOZ</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Namibia</t>
+          <t>Mauritania</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>MR</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>MRT</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Nauru</t>
+          <t>Montserrat</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>NR</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>NRU</t>
+          <t>MSR</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Nepal</t>
+          <t>Mauritius</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>NP</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>NPL</t>
+          <t>MUS</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Malawi</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>MW</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>MWI</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>New Caledonia</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>MY</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>NCL</t>
+          <t>MYS</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>New Zealand</t>
+          <t>Mayotte</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>NZ</t>
+          <t>YT</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>NZL</t>
+          <t>MYT</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Nicaragua</t>
+          <t>Namibia</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>NI</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>NIC</t>
+          <t>NAM</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Niger</t>
+          <t>New Caledonia</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>NCL</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Niger</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>NG</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>NGA</t>
+          <t>NER</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Niue</t>
+          <t>Norfolk Islands</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>NU</t>
+          <t>NF</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>NIU</t>
+          <t>NFK</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Norfolk Islands</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>NF</t>
+          <t>NG</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>NFK</t>
+          <t>NGA</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Norway, Svalbard and Jan Mayen</t>
+          <t>Nicaragua</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NI</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>NOR</t>
+          <t>NIC</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Oman</t>
+          <t>Niue</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>OM</t>
+          <t>NU</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>OMN</t>
+          <t>NIU</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Netherlands</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>PK</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>NLD</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Palau</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>PW</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>PLW</t>
+          <t>NOR</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Panama</t>
+          <t>Nepal</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>NP</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>PAN</t>
+          <t>NPL</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Papua New Guinea</t>
+          <t>Nauru</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>NR</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>PNG</t>
+          <t>NRU</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Paraguay</t>
+          <t>New Zealand</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>PY</t>
+          <t>NZ</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>PRY</t>
+          <t>NZL</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Oman</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>OMN</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>PK</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>PAK</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Pitcairn</t>
+          <t>Panama</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>PN</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>PCN</t>
+          <t>PAN</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Pitcairn</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>PN</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>PCN</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>PRT</t>
+          <t>PER</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Qatar</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>PH</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>QAT</t>
+          <t>PHL</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Republic of Korea</t>
+          <t>Palau</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>PW</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>KOR</t>
+          <t>PLW</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Republic of Moldova</t>
+          <t>Papua New Guinea</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>MDA</t>
+          <t>PNG</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>ROU</t>
+          <t>POL</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Russian Federation</t>
+          <t>Democratic People's Republic of Korea</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>KP</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>RUS</t>
+          <t>PRK</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Rwanda</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>RW</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>PRT</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Saint Barthélemy</t>
+          <t>Paraguay</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>PY</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>BLM</t>
+          <t>PRY</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Saint Helena</t>
+          <t>State of Palestine</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>SH</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>SHN</t>
+          <t>PSE</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Saint Kitts and Nevis</t>
+          <t>French Polynesia</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>KN</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>KNA</t>
+          <t>PYF</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Saint Lucia</t>
+          <t>Qatar</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>QA</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>LCA</t>
+          <t>QAT</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Saint Maarten (Dutch part)</t>
+          <t>Romania</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>SXM</t>
+          <t>ROU</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Saint Pierre and Miquelon</t>
+          <t>Russian Federation</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>SPM</t>
+          <t>RUS</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Saint Vincent and the Grenadines</t>
+          <t>Rwanda</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>VC</t>
+          <t>RW</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>VCT</t>
+          <t>RWA</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Samoa</t>
+          <t>Saudi Arabia</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>WS</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>WSM</t>
+          <t>SAU</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>San Marino</t>
+          <t>Sudan</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>SM</t>
+          <t>SD</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>SMR</t>
+          <t>SDN</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Sao Tome and Principe</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>STP</t>
+          <t>SEN</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>Singapore</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>SAU</t>
+          <t>SGP</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Senegal</t>
+          <t>South Georgia and the South Sandwich Islands</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>SN</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>SEN</t>
+          <t>SGS</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Saint Helena</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>SH</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>SRB</t>
+          <t>SHN</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Seychelles</t>
+          <t>Solomon Islands</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>SB</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>SYC</t>
+          <t>SLB</t>
         </is>
       </c>
     </row>
@@ -3556,391 +3556,391 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>El Salvador</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>SV</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SGP</t>
+          <t>SLV</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>San Marino</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>SM</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>SMR</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Somalia</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>SO</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>SVN</t>
+          <t>SOM</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Solomon Islands</t>
+          <t>Saint Pierre and Miquelon</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>SB</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>SPM</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Somalia</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>SRB</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>South Sudan</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>SS</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>ZAF</t>
+          <t>SSD</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>South Georgia and the South Sandwich Islands</t>
+          <t>Sao Tome and Principe</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>SGS</t>
+          <t>STP</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>South Sudan</t>
+          <t>Suriname</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>SS</t>
+          <t>SR</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>SSD</t>
+          <t>SUR</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Slovakia</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>ESP</t>
+          <t>SVK</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Sri Lanka</t>
+          <t>Slovenia</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>LK</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>LKA</t>
+          <t>SVN</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>State of Palestine</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>PSE</t>
+          <t>SWE</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Sudan</t>
+          <t>Eswatini</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>SD</t>
+          <t>SZ</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>SDN</t>
+          <t>SWZ</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Suriname</t>
+          <t>Saint Maarten (Dutch part)</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>SR</t>
+          <t>SX</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SUR</t>
+          <t>SXM</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Swaziland</t>
+          <t>Seychelles</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>SZ</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>SWZ</t>
+          <t>SYC</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Syria</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>SY</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SWE</t>
+          <t>SYR</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Switzerland, Liechtenstein</t>
+          <t>Turks and Caicos Islands</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>TCA</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Syria</t>
+          <t>Chad</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>SY</t>
+          <t>TD</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>SYR</t>
+          <t>TCD</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Tajikistan</t>
+          <t>Togo</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>TJ</t>
+          <t>TG</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>TJK</t>
+          <t>TGO</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>The Former Yugoslav Republic of Macedonia</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>MK</t>
+          <t>TH</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>MKD</t>
+          <t>THA</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Tajikistan</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>TH</t>
+          <t>TJ</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>TJK</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Timor-Leste</t>
+          <t>Tokelau</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>TL</t>
+          <t>TK</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>TKL</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Togo</t>
+          <t>Turkmenistan</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>TG</t>
+          <t>TM</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>TGO</t>
+          <t>TKM</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Tokelau</t>
+          <t>Timor-Leste</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>TK</t>
+          <t>TL</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>TKL</t>
+          <t>TLS</t>
         </is>
       </c>
     </row>
@@ -4015,255 +4015,255 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Turkmenistan</t>
+          <t>Tuvalu</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TM</t>
+          <t>TV</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>TKM</t>
+          <t>TUV</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Turks and Caicos Islands</t>
+          <t>United Republic of Tanzania</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>TC</t>
+          <t>TZ</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>TCA</t>
+          <t>TZA</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Tuvalu</t>
+          <t>Uganda</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>TV</t>
+          <t>UG</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>TUV</t>
+          <t>UGA</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Uganda</t>
+          <t>Ukraine</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>UG</t>
+          <t>UA</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UKR</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Ukraine</t>
+          <t>United States Minor Outlying Islands</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>UA</t>
+          <t>UM</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>UKR</t>
+          <t>UMI</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>AE</t>
+          <t>UY</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>ARE</t>
+          <t>URY</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>United Kingdom</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>USA</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>United Republic of Tanzania</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>TZ</t>
+          <t>UZ</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>TZA</t>
+          <t>UZB</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>United States Minor Outlying Islands</t>
+          <t>Holy See (Vatican City State)</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>UM</t>
+          <t>VA</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>UMI</t>
+          <t>VAT</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Saint Vincent and the Grenadines</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>UY</t>
+          <t>VC</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>URY</t>
+          <t>VCT</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>USA, Puerto Rico and US Virgin Islands</t>
+          <t>Venezuela</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>VE</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>VEN</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>British Virgin Islands</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>UZ</t>
+          <t>VG</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>UZB</t>
+          <t>VGB</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Vanuatu</t>
+          <t>Viet Nam</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>VN</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>VUT</t>
+          <t>VNM</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Venezuela</t>
+          <t>Vanuatu</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>VE</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>VEN</t>
+          <t>VUT</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Viet Nam</t>
+          <t>World</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>VN</t>
+          <t>WL</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>VNM</t>
+          <t>WLD</t>
         </is>
       </c>
     </row>
@@ -4287,51 +4287,51 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Western Sahara</t>
+          <t>Samoa</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>EH</t>
+          <t>WS</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>ESH</t>
+          <t>WSM</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>World</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>WL</t>
+          <t>YE</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>WLD</t>
+          <t>YEM</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Yemen</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>YE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>YEM</t>
+          <t>ZAF</t>
         </is>
       </c>
     </row>
